--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py practice\target2months\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07BE81-A68C-445B-88D1-A8DD6504C76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C048F-E43F-4FE2-80FC-3F37F52F9140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1498,7 +1499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1862,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1904,7 +1905,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1915,7 +1916,7 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
